--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2260.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2260.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162550494723807</v>
+        <v>1.079427599906921</v>
       </c>
       <c r="B1">
-        <v>2.256901789363903</v>
+        <v>2.793058633804321</v>
       </c>
       <c r="C1">
-        <v>6.25319910386176</v>
+        <v>5.16887092590332</v>
       </c>
       <c r="D1">
-        <v>2.551116572979721</v>
+        <v>2.100213527679443</v>
       </c>
       <c r="E1">
-        <v>1.213989697536569</v>
+        <v>1.173641562461853</v>
       </c>
     </row>
   </sheetData>
